--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/athirasabu/Documents/2024/DemocranceProject/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC502826-F590-5549-8467-E9FE46A79B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600541EE-204E-4642-A594-BCE811C79D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="1320" windowWidth="24020" windowHeight="16940" xr2:uid="{E3B7FE76-A703-DD40-8640-FC27748826B4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{E3B7FE76-A703-DD40-8640-FC27748826B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,67 +47,67 @@
     <t>completePolicySalesJourney</t>
   </si>
   <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year </t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>AED 10,001 - AED 20,000</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Athira Sabu</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>athirassabu94987@gmail.com</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>528757899</t>
+  </si>
+  <si>
+    <t>emiratesId</t>
+  </si>
+  <si>
+    <t>100000000000</t>
+  </si>
+  <si>
+    <t>emiratesIdMonth</t>
+  </si>
+  <si>
+    <t>emiratesIdYear</t>
+  </si>
+  <si>
+    <t>emiratesIdDate</t>
+  </si>
+  <si>
     <t>Democrance | Democratizing insurance</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year </t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>AED 10,001 - AED 20,000</t>
-  </si>
-  <si>
-    <t>salary</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>Mrs</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Athira Sabu</t>
-  </si>
-  <si>
-    <t>nation</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>athirassabu94987@gmail.com</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>528757899</t>
-  </si>
-  <si>
-    <t>emiratesId</t>
-  </si>
-  <si>
-    <t>100000000000</t>
-  </si>
-  <si>
-    <t>emiratesIdMonth</t>
-  </si>
-  <si>
-    <t>emiratesIdYear</t>
-  </si>
-  <si>
-    <t>emiratesIdDate</t>
   </si>
 </sst>
 </file>
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE04AFC-E21D-454F-877E-F22B2701702E}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,43 +497,43 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>22</v>
-      </c>
-      <c r="O1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -541,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -553,25 +553,25 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M2">
         <v>2</v>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/athirasabu/Documents/2024/DemocranceProject/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/athirasabu/Documents/2024/FlyDubaiProject/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600541EE-204E-4642-A594-BCE811C79D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BE0CC4-F4A6-574A-B7C4-8CDD0A420257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{E3B7FE76-A703-DD40-8640-FC27748826B4}"/>
   </bookViews>
@@ -36,78 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>testcasename</t>
   </si>
   <si>
-    <t>expectedtitle</t>
-  </si>
-  <si>
-    <t>completePolicySalesJourney</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year </t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>AED 10,001 - AED 20,000</t>
-  </si>
-  <si>
-    <t>salary</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>Mrs</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Athira Sabu</t>
-  </si>
-  <si>
-    <t>nation</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>athirassabu94987@gmail.com</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>528757899</t>
-  </si>
-  <si>
-    <t>emiratesId</t>
-  </si>
-  <si>
-    <t>100000000000</t>
-  </si>
-  <si>
-    <t>emiratesIdMonth</t>
-  </si>
-  <si>
-    <t>emiratesIdYear</t>
-  </si>
-  <si>
-    <t>emiratesIdDate</t>
-  </si>
-  <si>
-    <t>Democrance | Democratizing insurance</t>
+    <t>completeFlightJourney</t>
   </si>
 </sst>
 </file>
@@ -471,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE04AFC-E21D-454F-877E-F22B2701702E}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -489,104 +423,20 @@
     <col min="15" max="15" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1994</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <v>2025</v>
-      </c>
-      <c r="O2">
-        <v>8</v>
-      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{1468653F-A8C5-584D-8065-3C7132813BC1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/athirasabu/Documents/2024/FlyDubaiProject/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BE0CC4-F4A6-574A-B7C4-8CDD0A420257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB777CBB-7A11-C543-BCF4-55F36E7C6E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{E3B7FE76-A703-DD40-8640-FC27748826B4}"/>
   </bookViews>
@@ -36,12 +36,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>testcasename</t>
   </si>
   <si>
     <t>completeFlightJourney</t>
+  </si>
+  <si>
+    <t>originCity</t>
+  </si>
+  <si>
+    <t>destinationCity</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>Muscat</t>
+  </si>
+  <si>
+    <t>originMonth</t>
+  </si>
+  <si>
+    <t>originYear</t>
+  </si>
+  <si>
+    <t>originDate</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>destMonth</t>
+  </si>
+  <si>
+    <t>destYear</t>
+  </si>
+  <si>
+    <t>destDate</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>Athira</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>Sabu</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>athiras3466@gmail.com</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>528757899</t>
   </si>
 </sst>
 </file>
@@ -86,10 +164,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -405,38 +484,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE04AFC-E21D-454F-877E-F22B2701702E}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.1640625" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
     <col min="6" max="6" width="23.6640625" customWidth="1"/>
     <col min="10" max="10" width="31.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="12" max="12" width="21.5" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="15" max="15" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{AEB31FC0-3EEE-E544-85E8-3309F1670AD2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/athirasabu/Documents/2024/FlyDubaiProject/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB777CBB-7A11-C543-BCF4-55F36E7C6E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB92FF3-D07B-6846-9EA6-E7422DC2B442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{E3B7FE76-A703-DD40-8640-FC27748826B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>testcasename</t>
   </si>
@@ -71,9 +71,6 @@
     <t>2024</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>destMonth</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>destDate</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>firstName</t>
   </si>
   <si>
@@ -120,6 +114,33 @@
   </si>
   <si>
     <t>528757899</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>completeFlightJourneyApi</t>
+  </si>
+  <si>
+    <t>DXB</t>
+  </si>
+  <si>
+    <t>MCT</t>
+  </si>
+  <si>
+    <t>5/30/2024 12:00 AM</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>outBound</t>
+  </si>
+  <si>
+    <t>6/28/2024 12:00 AM</t>
   </si>
 </sst>
 </file>
@@ -164,11 +185,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -484,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE04AFC-E21D-454F-877E-F22B2701702E}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,6 +515,7 @@
     <col min="1" max="1" width="28.1640625" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="23.6640625" customWidth="1"/>
     <col min="10" max="10" width="31.33203125" customWidth="1"/>
     <col min="12" max="12" width="21.5" customWidth="1"/>
@@ -503,7 +524,7 @@
     <col min="15" max="15" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,34 +544,37 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
-        <v>24</v>
-      </c>
       <c r="O1" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -567,7 +591,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -576,25 +600,59 @@
         <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
